--- a/biology/Botanique/Bobgunnia_fistuloides/Bobgunnia_fistuloides.xlsx
+++ b/biology/Botanique/Bobgunnia_fistuloides/Bobgunnia_fistuloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bobgunnia fistuloides (synonyme : Swartzia fistuloides) est une espèce de plantes dicotylédones de la famille des Fabaceae (Leguminosae), sous-famille des Faboideae , originaire d'Afrique.
-Ce sont des arbres de taille moyenne, pouvant atteindre 25 mètres de haut. L'espèce est exploitée pour son bois utilisé comme bois d'œuvre et commercialisé sous le nom de pau rosa, pao rosa ou boto[4].  
+Ce sont des arbres de taille moyenne, pouvant atteindre 25 mètres de haut. L'espèce est exploitée pour son bois utilisé comme bois d'œuvre et commercialisé sous le nom de pau rosa, pao rosa ou boto.  
 </t>
         </is>
       </c>
